--- a/docs/PacBio-Data.xlsx
+++ b/docs/PacBio-Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dportik/Documents/GitHub/pb-metagenomics-tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95995847-60BE-DB42-9739-ABCFB7E8DFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9C59B-A553-5C4F-BA65-F5E862C9FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43520" yWindow="1340" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="43520" yWindow="1340" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PacBio-Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="191">
   <si>
     <t>Sample Type</t>
   </si>
@@ -569,12 +569,36 @@
   </si>
   <si>
     <t>PacBio Project</t>
+  </si>
+  <si>
+    <t>Mediterranean seawater microbiome</t>
+  </si>
+  <si>
+    <t>4.9 kb</t>
+  </si>
+  <si>
+    <t>7.6 Gb</t>
+  </si>
+  <si>
+    <t>[PRJNA674982](https://www.ncbi.nlm.nih.gov/bioproject/PRJNA674982/)</t>
+  </si>
+  <si>
+    <t>[SRX9460989](https://www.ncbi.nlm.nih.gov/sra/SRX9460989)</t>
+  </si>
+  <si>
+    <t>[SRR13009787](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13009787)</t>
+  </si>
+  <si>
+    <t>Haro-Moreno et al. 2021</t>
+  </si>
+  <si>
+    <t>Haro-Moreno, J.M., Lopez-Perez, M., and F. Rodriguez-Valera. 2021. Enhanced recovery of microbial genes and genomes from a marine water column using long-read metagenomics. *Frontiers in Microbiology*, 12: 708782. https://doi.org/10.3389/fmicb.2021.708782</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1058,10 +1082,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1416,1275 +1439,1318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <v>2419037</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>182</v>
       </c>
-      <c r="M2" s="1">
+      <c r="M2">
         <v>2019</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <v>1978852</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" t="s">
         <v>182</v>
       </c>
-      <c r="M3" s="1">
+      <c r="M3">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <v>2770833</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>110</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" t="s">
         <v>31</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" t="s">
         <v>182</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M4">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>2480208</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" t="s">
         <v>182</v>
       </c>
-      <c r="M5" s="1">
+      <c r="M5">
         <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" t="s">
         <v>42</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" t="s">
         <v>182</v>
       </c>
-      <c r="M6" s="1">
+      <c r="M6">
         <v>2022</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>1767289</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>112</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="I7" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="K7" t="s">
         <v>46</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" t="s">
         <v>182</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M7">
         <v>2021</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>1904159</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>47</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>113</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" t="s">
         <v>25</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="K8" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" t="s">
         <v>182</v>
       </c>
-      <c r="M8" s="1">
+      <c r="M8">
         <v>2021</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>1687238</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" t="s">
         <v>51</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" t="s">
         <v>114</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="I9" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" t="s">
         <v>53</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K9" t="s">
         <v>54</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" t="s">
         <v>182</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M9">
         <v>2021</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>1792146</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" t="s">
         <v>115</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" t="s">
         <v>52</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" t="s">
         <v>56</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="K10" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" t="s">
         <v>182</v>
       </c>
-      <c r="M10" s="1">
+      <c r="M10">
         <v>2021</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" t="s">
         <v>60</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>18456925</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" t="s">
         <v>116</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" t="s">
         <v>63</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>64</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="K11" t="s">
         <v>65</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>66</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>2021</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>1984390</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>69</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" t="s">
         <v>70</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="K12" t="s">
         <v>72</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>22</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>2021</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1065834</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" t="s">
         <v>75</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" t="s">
         <v>118</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>25</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" t="s">
         <v>76</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>77</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="K13" t="s">
         <v>78</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>2021</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>735702</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" t="s">
         <v>119</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" t="s">
         <v>76</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>81</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="K14" t="s">
         <v>82</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>79</v>
       </c>
-      <c r="M14" s="1">
+      <c r="M14">
         <v>2021</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" t="s">
         <v>74</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1601967</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" t="s">
         <v>83</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" t="s">
         <v>120</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="I15" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>84</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="K15" t="s">
         <v>85</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>79</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>2021</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>1095633</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F16" t="s">
         <v>86</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" t="s">
         <v>121</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="I16" t="s">
         <v>76</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>87</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="K16" t="s">
         <v>88</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>79</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>2021</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" t="s">
         <v>74</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="1">
         <v>717518</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" t="s">
         <v>89</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>18</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" t="s">
         <v>76</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>90</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="K17" t="s">
         <v>91</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>79</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>2021</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>939988</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" t="s">
         <v>75</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>18</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="I18" t="s">
         <v>76</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="K18" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>79</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>2021</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" t="s">
         <v>73</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>1172506</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" t="s">
         <v>124</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>18</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I19" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>95</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K19" t="s">
         <v>96</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>2021</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>1142896</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="F20" t="s">
         <v>97</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" t="s">
         <v>125</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="I20" t="s">
         <v>76</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>98</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="K20" t="s">
         <v>99</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>79</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>2021</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" t="s">
         <v>74</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="1">
         <v>817197</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F21" t="s">
         <v>100</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" t="s">
         <v>123</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="I21" t="s">
         <v>76</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>101</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" t="s">
         <v>102</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>79</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>2021</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="1">
         <v>1000637</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" t="s">
         <v>94</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" t="s">
         <v>126</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>52</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" t="s">
         <v>76</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>103</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" t="s">
         <v>104</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>79</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>2021</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="1">
         <v>955510</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" t="s">
         <v>126</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" t="s">
         <v>52</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" t="s">
         <v>105</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" t="s">
         <v>106</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" t="s">
         <v>79</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M23">
         <v>2021</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>151</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1537864</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>186</v>
+      </c>
+      <c r="J24" t="s">
+        <v>187</v>
+      </c>
+      <c r="K24" t="s">
+        <v>188</v>
+      </c>
+      <c r="L24" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
         <v>144</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" t="s">
         <v>150</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E25" s="1">
         <v>4282202</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F25" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G25" t="s">
         <v>127</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H25" t="s">
         <v>139</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I25" t="s">
         <v>70</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J25" t="s">
         <v>155</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K25" t="s">
         <v>162</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L25" t="s">
         <v>169</v>
       </c>
-      <c r="M24" s="1">
+      <c r="M25">
         <v>2022</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C26" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D26" t="s">
         <v>151</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E26" s="1">
         <v>2872317</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F26" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G26" t="s">
         <v>128</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H26" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I26" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J26" t="s">
         <v>156</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K26" t="s">
         <v>163</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L26" t="s">
         <v>170</v>
       </c>
-      <c r="M25" s="1">
+      <c r="M26">
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" t="s">
         <v>146</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D27" t="s">
         <v>150</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E27" s="1">
         <v>2669321</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F27" t="s">
         <v>135</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G27" t="s">
         <v>129</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H27" t="s">
         <v>62</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I27" t="s">
         <v>70</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J27" t="s">
         <v>157</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K27" t="s">
         <v>164</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L27" t="s">
         <v>171</v>
       </c>
-      <c r="M26" s="1">
+      <c r="M27">
         <v>2022</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" t="s">
         <v>147</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" t="s">
         <v>150</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E28" s="1">
         <v>5866401</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F28" t="s">
         <v>136</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G28" t="s">
         <v>130</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H28" t="s">
         <v>140</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I28" t="s">
         <v>70</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J28" t="s">
         <v>158</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K28" t="s">
         <v>165</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L28" t="s">
         <v>172</v>
       </c>
-      <c r="M27" s="1">
+      <c r="M28">
         <v>2022</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" t="s">
         <v>148</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" t="s">
         <v>151</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E29" s="1">
         <v>1417931</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F29" t="s">
         <v>133</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G29" t="s">
         <v>143</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H29" t="s">
         <v>52</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I29" t="s">
         <v>152</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J29" t="s">
         <v>159</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K29" t="s">
         <v>166</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L29" t="s">
         <v>173</v>
       </c>
-      <c r="M28" s="1">
+      <c r="M29">
         <v>2022</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C30" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" t="s">
         <v>151</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E30" s="1">
         <v>2017709</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F30" t="s">
         <v>137</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G30" t="s">
         <v>131</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H30" t="s">
         <v>141</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I30" t="s">
         <v>153</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J30" t="s">
         <v>160</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K30" t="s">
         <v>167</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L30" t="s">
         <v>174</v>
       </c>
-      <c r="M29" s="1">
+      <c r="M30">
         <v>2022</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" t="s">
         <v>149</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C31" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D31" t="s">
         <v>151</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E31" s="1">
         <v>2694800</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F31" t="s">
         <v>138</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G31" t="s">
         <v>132</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H31" t="s">
         <v>142</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I31" t="s">
         <v>154</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J31" t="s">
         <v>161</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K31" t="s">
         <v>168</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L31" t="s">
         <v>175</v>
       </c>
-      <c r="M30" s="1">
+      <c r="M31">
         <v>2022</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>181</v>
       </c>
     </row>

--- a/docs/PacBio-Data.xlsx
+++ b/docs/PacBio-Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dportik/Documents/GitHub/pb-metagenomics-tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D9C59B-A553-5C4F-BA65-F5E862C9FC7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F06E1-77FB-F94D-A3DA-759EA2ADE354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43520" yWindow="1340" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="221">
   <si>
     <t>Sample Type</t>
   </si>
@@ -343,9 +343,6 @@
     <t>[SRR15489009](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR15489009)</t>
   </si>
   <si>
-    <t xml:space="preserve">17.0 kb </t>
-  </si>
-  <si>
     <t>20.5 Gb</t>
   </si>
   <si>
@@ -424,21 +421,6 @@
     <t>3.2 kb</t>
   </si>
   <si>
-    <t xml:space="preserve">7.8 kb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7 kb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">18.9 kb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">14.6 kb </t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR </t>
-  </si>
-  <si>
     <t>Q33</t>
   </si>
   <si>
@@ -448,9 +430,6 @@
     <t>Q34</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>4.6 Gb</t>
   </si>
   <si>
@@ -529,27 +508,6 @@
     <t>[DRR290133](https://ddbj.nig.ac.jp/resource/sra-run/DRR290133)</t>
   </si>
   <si>
-    <t>Zhang et al. 2022</t>
-  </si>
-  <si>
-    <t>Zhang et al. 2023</t>
-  </si>
-  <si>
-    <t>Zhang et al. 2024</t>
-  </si>
-  <si>
-    <t>Zhang et al. 2025</t>
-  </si>
-  <si>
-    <t>Noonan et al. 2022</t>
-  </si>
-  <si>
-    <t>Kim et al. 2022</t>
-  </si>
-  <si>
-    <t>Kato et al. 2022</t>
-  </si>
-  <si>
     <t>Bickhart, D.M., Kolmogorov, M., Tseng, E., Portik, D.M., Korobeynikov, A., Tolstoganov, I., Uritskiy, G., Liachko, I., Sullivan, S.T., Shin, S.B., Zorea, A., Andreu, V.P., Panke-Buisse, K., Medema, M.H., Mizrahi, I., Pevzner, P.A., and T.P.L. Smith. 2022. Generating lineage-resolved, complete metagenome-assembled genomes from complex microbial communities. *Nature Biotechnology*, 40: 711-719. https://doi.org/10.1038/s41587-021-01130-z</t>
   </si>
   <si>
@@ -571,9 +529,6 @@
     <t>PacBio Project</t>
   </si>
   <si>
-    <t>Mediterranean seawater microbiome</t>
-  </si>
-  <si>
     <t>4.9 kb</t>
   </si>
   <si>
@@ -589,10 +544,145 @@
     <t>[SRR13009787](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR13009787)</t>
   </si>
   <si>
-    <t>Haro-Moreno et al. 2021</t>
-  </si>
-  <si>
     <t>Haro-Moreno, J.M., Lopez-Perez, M., and F. Rodriguez-Valera. 2021. Enhanced recovery of microbial genes and genomes from a marine water column using long-read metagenomics. *Frontiers in Microbiology*, 12: 708782. https://doi.org/10.3389/fmicb.2021.708782</t>
+  </si>
+  <si>
+    <t>Seawater microbiome (Mediterranean Sea)</t>
+  </si>
+  <si>
+    <t>[Haro-Moreno et al. 2021](https://www.frontiersin.org/articles/10.3389/fmicb.2021.708782/full)</t>
+  </si>
+  <si>
+    <t>Seawater microbiome (Arctic)</t>
+  </si>
+  <si>
+    <t>3plex on 1 SMRT Cell 8M</t>
+  </si>
+  <si>
+    <t>9.6 kb</t>
+  </si>
+  <si>
+    <t>9.7 Gb</t>
+  </si>
+  <si>
+    <t>[PRJEB41592](https://www.ebi.ac.uk/ena/browser/view/PRJEB41592)</t>
+  </si>
+  <si>
+    <t>[ERX4785810](https://www.ebi.ac.uk/ena/browser/view/ERX4785810)</t>
+  </si>
+  <si>
+    <t>[ERR4920901](https://www.ebi.ac.uk/ena/browser/view/ERR4920901)</t>
+  </si>
+  <si>
+    <t>[Priest et al. 2021](https://peerj.com/articles/11721/)</t>
+  </si>
+  <si>
+    <t>Seawater microbiome (Fram Strait)</t>
+  </si>
+  <si>
+    <t>[ERX4785811](https://www.ebi.ac.uk/ena/browser/view/ERX4785811)</t>
+  </si>
+  <si>
+    <t>[ERR4920902](https://www.ebi.ac.uk/ena/browser/view/ERR4920902)</t>
+  </si>
+  <si>
+    <t>Seawater microbiome (Atlantic)</t>
+  </si>
+  <si>
+    <t>8.8 Gb</t>
+  </si>
+  <si>
+    <t>[ERX4785812](https://www.ebi.ac.uk/ena/browser/view/ERX4785812)</t>
+  </si>
+  <si>
+    <t>[ERR4920903](https://www.ebi.ac.uk/ena/browser/view/ERR4920903)</t>
+  </si>
+  <si>
+    <t>17.0 kb</t>
+  </si>
+  <si>
+    <t>[Zhang et al. 2022](https://academic.oup.com/gigascience/article/doi/10.1093/gigascience/giac116/6833030)</t>
+  </si>
+  <si>
+    <t>7.8 kb</t>
+  </si>
+  <si>
+    <t>16.7 kb</t>
+  </si>
+  <si>
+    <t>18.9 kb</t>
+  </si>
+  <si>
+    <t>[Noonan et al. 2022](https://academic.oup.com/gigascience/article/doi/10.1093/gigascience/giac116/6833030)</t>
+  </si>
+  <si>
+    <t>14.6 kb</t>
+  </si>
+  <si>
+    <t>[Kim et al. 2022](https://www.nature.com/articles/s41467-022-34149-0)</t>
+  </si>
+  <si>
+    <t>[Kato et al. 2022](https://www.frontiersin.org/articles/10.3389/fmicb.2022.1045931/full)</t>
+  </si>
+  <si>
+    <t>Seawater microbiome (Pacific)</t>
+  </si>
+  <si>
+    <t>1.2 kb</t>
+  </si>
+  <si>
+    <t>1.5 Gb</t>
+  </si>
+  <si>
+    <t>Q60</t>
+  </si>
+  <si>
+    <t>[PRJNA853328](https://www.ncbi.nlm.nih.gov/bioproject/PRJNA853328/)</t>
+  </si>
+  <si>
+    <t>[SRX15931894](https://www.ncbi.nlm.nih.gov/sra/SRX15931894)</t>
+  </si>
+  <si>
+    <t>[SRR19888796](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR19888796)</t>
+  </si>
+  <si>
+    <t>[Patin &amp; Goodwin 2022](https://journals.asm.org/doi/10.1128/msystems.00595-22)</t>
+  </si>
+  <si>
+    <t>2.0 kb</t>
+  </si>
+  <si>
+    <t>3.8 Gb</t>
+  </si>
+  <si>
+    <t>Q52</t>
+  </si>
+  <si>
+    <t>[SRX15931880](https://www.ncbi.nlm.nih.gov/sra/SRX15931880)</t>
+  </si>
+  <si>
+    <t>[SRR19888810](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR19888810)</t>
+  </si>
+  <si>
+    <t>2.2 kb</t>
+  </si>
+  <si>
+    <t>3.4 Gb</t>
+  </si>
+  <si>
+    <t>Q53</t>
+  </si>
+  <si>
+    <t>[SRX15931858](https://www.ncbi.nlm.nih.gov/sra/SRX15931858)</t>
+  </si>
+  <si>
+    <t>[SRR19888832](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR19888832)</t>
+  </si>
+  <si>
+    <t>Patin, N.V., and K.D. Goodwin. 2022. Long-read sequencing improves recovery of picoeukaryotic genomes and zooplankton marker genes from marine metagenomes. *mSystems*, online early. https://doi.org/10.1128/msystems.00595-22</t>
+  </si>
+  <si>
+    <t>Priest, T., Orellana, L.H., Huettel, B., Fuchs, B.M., and R. Amann. 2021. Microbial metagenome-assembled genomes of the Fram Strait from short and long read sequencing platforms. *PeerJ*, 9: e11721. https://doi.org/10.7717/peerj.11721</t>
   </si>
 </sst>
 </file>
@@ -1440,10 +1530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M39"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1509,7 +1599,7 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -1524,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M2">
         <v>2019</v>
@@ -1550,7 +1640,7 @@
         <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -1565,7 +1655,7 @@
         <v>28</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M3">
         <v>2020</v>
@@ -1591,7 +1681,7 @@
         <v>30</v>
       </c>
       <c r="G4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
         <v>25</v>
@@ -1606,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M4">
         <v>2020</v>
@@ -1632,7 +1722,7 @@
         <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" t="s">
         <v>35</v>
@@ -1647,7 +1737,7 @@
         <v>37</v>
       </c>
       <c r="L5" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M5">
         <v>2020</v>
@@ -1688,7 +1778,7 @@
         <v>42</v>
       </c>
       <c r="L6" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M6">
         <v>2022</v>
@@ -1714,7 +1804,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H7" t="s">
         <v>25</v>
@@ -1729,7 +1819,7 @@
         <v>46</v>
       </c>
       <c r="L7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M7">
         <v>2021</v>
@@ -1755,7 +1845,7 @@
         <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1770,7 +1860,7 @@
         <v>49</v>
       </c>
       <c r="L8" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M8">
         <v>2021</v>
@@ -1796,7 +1886,7 @@
         <v>51</v>
       </c>
       <c r="G9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H9" t="s">
         <v>52</v>
@@ -1811,7 +1901,7 @@
         <v>54</v>
       </c>
       <c r="L9" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M9">
         <v>2021</v>
@@ -1837,7 +1927,7 @@
         <v>55</v>
       </c>
       <c r="G10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
         <v>52</v>
@@ -1852,7 +1942,7 @@
         <v>57</v>
       </c>
       <c r="L10" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="M10">
         <v>2021</v>
@@ -1878,7 +1968,7 @@
         <v>61</v>
       </c>
       <c r="G11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H11" t="s">
         <v>62</v>
@@ -1919,7 +2009,7 @@
         <v>68</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H12" t="s">
         <v>69</v>
@@ -1960,7 +2050,7 @@
         <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H13" t="s">
         <v>25</v>
@@ -2001,7 +2091,7 @@
         <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -2042,7 +2132,7 @@
         <v>83</v>
       </c>
       <c r="G15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -2083,7 +2173,7 @@
         <v>86</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -2124,7 +2214,7 @@
         <v>89</v>
       </c>
       <c r="G17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
@@ -2165,7 +2255,7 @@
         <v>75</v>
       </c>
       <c r="G18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -2206,7 +2296,7 @@
         <v>94</v>
       </c>
       <c r="G19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -2247,7 +2337,7 @@
         <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
@@ -2288,7 +2378,7 @@
         <v>100</v>
       </c>
       <c r="G21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
@@ -2329,7 +2419,7 @@
         <v>94</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -2370,7 +2460,7 @@
         <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -2396,37 +2486,37 @@
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E24" s="1">
         <v>1537864</v>
       </c>
       <c r="F24" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="G24" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="J24" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="K24" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="L24" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="M24">
         <v>2021</v>
@@ -2437,40 +2527,40 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>144</v>
+        <v>177</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="E25" s="1">
-        <v>4282202</v>
+        <v>1005791</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="G25" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="H25" t="s">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="I25" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="K25" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="L25" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="M25">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
@@ -2478,40 +2568,40 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="E26" s="1">
-        <v>2872317</v>
+        <v>762273</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="H26" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I26" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="J26" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="K26" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M26">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
@@ -2519,40 +2609,40 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
       <c r="E27" s="1">
-        <v>2669321</v>
+        <v>1023539</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
-        <v>129</v>
+        <v>189</v>
       </c>
       <c r="H27" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I27" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>157</v>
+        <v>190</v>
       </c>
       <c r="K27" t="s">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="L27" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M27">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
@@ -2560,37 +2650,37 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E28" s="1">
-        <v>5866401</v>
+        <v>4282202</v>
       </c>
       <c r="F28" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H28" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="I28" t="s">
         <v>70</v>
       </c>
       <c r="J28" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K28" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="L28" t="s">
-        <v>172</v>
+        <v>193</v>
       </c>
       <c r="M28">
         <v>2022</v>
@@ -2601,37 +2691,37 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="E29" s="1">
-        <v>1417931</v>
+        <v>2872317</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="H29" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I29" t="s">
-        <v>152</v>
+        <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="K29" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="L29" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="M29">
         <v>2022</v>
@@ -2642,37 +2732,37 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>139</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="E30" s="1">
-        <v>2017709</v>
+        <v>2669321</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H30" t="s">
-        <v>141</v>
+        <v>62</v>
       </c>
       <c r="I30" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="K30" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L30" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="M30">
         <v>2022</v>
@@ -2683,75 +2773,331 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
+        <v>143</v>
+      </c>
+      <c r="E31" s="1">
+        <v>5866401</v>
+      </c>
+      <c r="F31" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" t="s">
+        <v>70</v>
+      </c>
+      <c r="J31" t="s">
         <v>151</v>
       </c>
-      <c r="E31" s="1">
-        <v>2694800</v>
-      </c>
-      <c r="F31" t="s">
-        <v>138</v>
-      </c>
-      <c r="G31" t="s">
-        <v>132</v>
-      </c>
-      <c r="H31" t="s">
-        <v>142</v>
-      </c>
-      <c r="I31" t="s">
-        <v>154</v>
-      </c>
-      <c r="J31" t="s">
-        <v>161</v>
-      </c>
       <c r="K31" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="M31">
         <v>2022</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1417931</v>
+      </c>
+      <c r="F32" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" t="s">
+        <v>136</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>145</v>
+      </c>
+      <c r="J32" t="s">
+        <v>152</v>
+      </c>
+      <c r="K32" t="s">
+        <v>159</v>
+      </c>
+      <c r="L32" t="s">
+        <v>197</v>
+      </c>
+      <c r="M32">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" s="1">
+        <v>2017709</v>
+      </c>
+      <c r="F33" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H33" t="s">
+        <v>135</v>
+      </c>
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
+      <c r="J33" t="s">
+        <v>153</v>
+      </c>
+      <c r="K33" t="s">
+        <v>160</v>
+      </c>
+      <c r="L33" t="s">
+        <v>199</v>
+      </c>
+      <c r="M33">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="B34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>144</v>
+      </c>
+      <c r="E34" s="1">
+        <v>2694800</v>
+      </c>
+      <c r="F34" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" t="s">
+        <v>131</v>
+      </c>
+      <c r="H34" t="s">
+        <v>134</v>
+      </c>
+      <c r="I34" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34" t="s">
+        <v>154</v>
+      </c>
+      <c r="K34" t="s">
+        <v>161</v>
+      </c>
+      <c r="L34" t="s">
+        <v>200</v>
+      </c>
+      <c r="M34">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+      <c r="C35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" t="s">
+        <v>144</v>
+      </c>
+      <c r="E35" s="1">
+        <v>1280382</v>
+      </c>
+      <c r="F35" t="s">
+        <v>202</v>
+      </c>
+      <c r="G35" t="s">
+        <v>203</v>
+      </c>
+      <c r="H35" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" t="s">
+        <v>205</v>
+      </c>
+      <c r="J35" t="s">
+        <v>206</v>
+      </c>
+      <c r="K35" t="s">
+        <v>207</v>
+      </c>
+      <c r="L35" t="s">
+        <v>208</v>
+      </c>
+      <c r="M35">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1907840</v>
+      </c>
+      <c r="F36" t="s">
+        <v>209</v>
+      </c>
+      <c r="G36" t="s">
+        <v>210</v>
+      </c>
+      <c r="H36" t="s">
+        <v>211</v>
+      </c>
+      <c r="I36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J36" t="s">
+        <v>212</v>
+      </c>
+      <c r="K36" t="s">
+        <v>213</v>
+      </c>
+      <c r="L36" t="s">
+        <v>208</v>
+      </c>
+      <c r="M36">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1543899</v>
+      </c>
+      <c r="F37" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37" t="s">
+        <v>216</v>
+      </c>
+      <c r="I37" t="s">
+        <v>205</v>
+      </c>
+      <c r="J37" t="s">
+        <v>217</v>
+      </c>
+      <c r="K37" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" t="s">
+        <v>208</v>
+      </c>
+      <c r="M37">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/docs/PacBio-Data.xlsx
+++ b/docs/PacBio-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dportik/Documents/GitHub/pb-metagenomics-tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66F06E1-77FB-F94D-A3DA-759EA2ADE354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E88D51-14A7-4541-89F4-9AA7D65083F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43520" yWindow="1340" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="43460" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PacBio-Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="309">
   <si>
     <t>Sample Type</t>
   </si>
@@ -683,6 +683,270 @@
   </si>
   <si>
     <t>Priest, T., Orellana, L.H., Huettel, B., Fuchs, B.M., and R. Amann. 2021. Microbial metagenome-assembled genomes of the Fram Strait from short and long read sequencing platforms. *PeerJ*, 9: e11721. https://doi.org/10.7717/peerj.11721</t>
+  </si>
+  <si>
+    <t>71 species Mock Community</t>
+  </si>
+  <si>
+    <t>10.2 kb</t>
+  </si>
+  <si>
+    <t>5.4 Gb</t>
+  </si>
+  <si>
+    <t>Q37</t>
+  </si>
+  <si>
+    <t>[PRJEB52977](https://www.ncbi.nlm.nih.gov/bioproject/PRJEB52977)</t>
+  </si>
+  <si>
+    <t>[ERX9314128](https://www.ncbi.nlm.nih.gov/sra/ERX9314128)</t>
+  </si>
+  <si>
+    <t>[ERR9765783](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR9765783)</t>
+  </si>
+  <si>
+    <t>[Meslier et al. 2022](https://doi.org/10.1038/s41597-022-01762-z)</t>
+  </si>
+  <si>
+    <t>7.9 kb</t>
+  </si>
+  <si>
+    <t>13.0 Gb</t>
+  </si>
+  <si>
+    <t>[PRJEB50473](https://www.ncbi.nlm.nih.gov/bioproject/PRJEB50473)</t>
+  </si>
+  <si>
+    <t>[ERX7722845](https://www.ncbi.nlm.nih.gov/sra/ERX7722845)</t>
+  </si>
+  <si>
+    <t>[ERR8157883](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR8157883)</t>
+  </si>
+  <si>
+    <t>[Onate et al. 2022](https://doi.org/10.1128/mra.00250-22)</t>
+  </si>
+  <si>
+    <t>Activated sludge</t>
+  </si>
+  <si>
+    <t>15.4 kb</t>
+  </si>
+  <si>
+    <t>15.3 Gb</t>
+  </si>
+  <si>
+    <t>[PRJEB48021](https://www.ncbi.nlm.nih.gov/bioproject/PRJEB48021)</t>
+  </si>
+  <si>
+    <t>[ERX6585322](https://www.ncbi.nlm.nih.gov/sra/ERX6585322)</t>
+  </si>
+  <si>
+    <t>[ERR7015089](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR7015089)</t>
+  </si>
+  <si>
+    <t>[Sereika et al. 2022](https://doi.org/10.1038/s41592-022-01539-7)</t>
+  </si>
+  <si>
+    <t>[Saak et al. 2022](https://www.biorxiv.org/content/10.1101/2022.07.01.497845v1)</t>
+  </si>
+  <si>
+    <t>[SRR18495449](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495449)</t>
+  </si>
+  <si>
+    <t>[SRX14626929](https://www.ncbi.nlm.nih.gov/sra/SRX14626929)</t>
+  </si>
+  <si>
+    <t>[PRJNA778418](https://www.ncbi.nlm.nih.gov/bioproject/PRJNA778418)</t>
+  </si>
+  <si>
+    <t>6.8 Gb</t>
+  </si>
+  <si>
+    <t>12.9 kb</t>
+  </si>
+  <si>
+    <t>2plex on 1 SMRT Cell 8M</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (We-3-2-CheeseC)</t>
+  </si>
+  <si>
+    <t>[SRR18495446](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495446)</t>
+  </si>
+  <si>
+    <t>[SRX14626932](https://www.ncbi.nlm.nih.gov/sra/SRX14626932)</t>
+  </si>
+  <si>
+    <t>6.3 Gb</t>
+  </si>
+  <si>
+    <t>12.1 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (We-3-5-CheeseC)</t>
+  </si>
+  <si>
+    <t>[SRR18495445](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495445)</t>
+  </si>
+  <si>
+    <t>[SRX14626933](https://www.ncbi.nlm.nih.gov/sra/SRX14626933)</t>
+  </si>
+  <si>
+    <t>8.3 Gb</t>
+  </si>
+  <si>
+    <t>13.4 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (We-3-6-CheeseC)</t>
+  </si>
+  <si>
+    <t>[SRR18495451](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495451)</t>
+  </si>
+  <si>
+    <t>[SRX14626927](https://www.ncbi.nlm.nih.gov/sra/SRX14626927)</t>
+  </si>
+  <si>
+    <t>11.3 Gb</t>
+  </si>
+  <si>
+    <t>13.5 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (O-3-2-CheeseA)</t>
+  </si>
+  <si>
+    <t>[SRR18495450](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495450)</t>
+  </si>
+  <si>
+    <t>[SRX14626928](https://www.ncbi.nlm.nih.gov/sra/SRX14626928)</t>
+  </si>
+  <si>
+    <t>5.2 Gb</t>
+  </si>
+  <si>
+    <t>13.6 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (O-3-3-CheeseA)</t>
+  </si>
+  <si>
+    <t>[SRR18495444](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495444)</t>
+  </si>
+  <si>
+    <t>[SRX14626934](https://www.ncbi.nlm.nih.gov/sra/SRX14626934)</t>
+  </si>
+  <si>
+    <t>6.1 Gb</t>
+  </si>
+  <si>
+    <t>13.3 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (O-3-4-CheeseA)</t>
+  </si>
+  <si>
+    <t>[SRR18495443](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495443)</t>
+  </si>
+  <si>
+    <t>[SRX14626935](https://www.ncbi.nlm.nih.gov/sra/SRX14626935)</t>
+  </si>
+  <si>
+    <t>4.0 Gb</t>
+  </si>
+  <si>
+    <t>13.0 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (O-3-5-CheeseA)</t>
+  </si>
+  <si>
+    <t>[SRR18495442](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495442)</t>
+  </si>
+  <si>
+    <t>[SRX14626936](https://www.ncbi.nlm.nih.gov/sra/SRX14626936)</t>
+  </si>
+  <si>
+    <t>14.3 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (O-3-6-CheeseA)</t>
+  </si>
+  <si>
+    <t>[SRR18495441](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495441)</t>
+  </si>
+  <si>
+    <t>[SRX14626937](https://www.ncbi.nlm.nih.gov/sra/SRX14626937)</t>
+  </si>
+  <si>
+    <t>18.3 Gb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (Wy-3-2-CheeseB)</t>
+  </si>
+  <si>
+    <t>[SRR18495440](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495440)</t>
+  </si>
+  <si>
+    <t>[SRX14626938](https://www.ncbi.nlm.nih.gov/sra/SRX14626938)</t>
+  </si>
+  <si>
+    <t>3.9 Gb</t>
+  </si>
+  <si>
+    <t>12.4 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (Wy-3-3-CheeseB)</t>
+  </si>
+  <si>
+    <t>[SRR18495439](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495439)</t>
+  </si>
+  <si>
+    <t>[SRX14626939](https://www.ncbi.nlm.nih.gov/sra/SRX14626939)</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (Wy-3-4-CheeseB)</t>
+  </si>
+  <si>
+    <t>[SRR18495438](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495438)</t>
+  </si>
+  <si>
+    <t>[SRX14626940](https://www.ncbi.nlm.nih.gov/sra/SRX14626940)</t>
+  </si>
+  <si>
+    <t>14.0 kb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (Wy-3-5-CheeseB)</t>
+  </si>
+  <si>
+    <t>[SRR18495437](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=SRR18495437)</t>
+  </si>
+  <si>
+    <t>[SRX14626941](https://www.ncbi.nlm.nih.gov/sra/SRX14626941)</t>
+  </si>
+  <si>
+    <t>5.9 Gb</t>
+  </si>
+  <si>
+    <t>Cheese rind microbiome (Wy-3-6-CheeseB)</t>
+  </si>
+  <si>
+    <t>Meslier, V., Quinquis, B., Da Silva, K., Onate, F.P., Pons, N., Roume, H., Podar, M., and M. Almeida. 2022. Benchmarking second and third-generation sequencing platforms for microbial metagenomics. *Scientific Data*, 9: 694. https://doi.org/10.1038/s41597-022-01762-z</t>
+  </si>
+  <si>
+    <t>Onate, F.P., Roume, H., and M. Almeida. 2022. Recovery of metagenome-assembled genomes from a human fecal sample with Pacific Biosciences high-fidelity sequencing. *Microbiology Resource Announcements*, 11: e0025022. https://doi.org/10.1128/mra.00250-22</t>
+  </si>
+  <si>
+    <t>Saak, C.C., Pierce, E.C., Dinh, C.B., Portik, D., Hall, R., Ashby, M., and R.J. Dutton. 2022. Longitudinal, multi-platform metagenomics yields a high-quality genomic catalog and guides an in vitro model for cheese communities. *mSystems*, Accepted. https://www.biorxiv.org/content/10.1101/2022.07.01.497845v1</t>
+  </si>
+  <si>
+    <t>Sereika, M., Kirkegaard, R.H., Karst, S.M., Michaelsen, T.Y., Sorensen, E.A., Wollenberg, R.D., and M. Albertsen. 2022. Oxford Nanopore R10.4 long-read sequencing enables the generation of near-finished bacterial genomes from pure cultures and metagenomes without short-read or reference polishing. *Nature Methods*, 19: 823-826. https://doi.org/10.1038/s41592-022-01539-7</t>
+  </si>
+  <si>
+    <t>Q32</t>
   </si>
 </sst>
 </file>
@@ -1530,13 +1794,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1745,40 +2012,40 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
+        <v>16</v>
+      </c>
+      <c r="E6" s="1">
+        <v>524805</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>222</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>224</v>
       </c>
       <c r="I6" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>226</v>
       </c>
       <c r="K6" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="L6" t="s">
-        <v>168</v>
+        <v>228</v>
       </c>
       <c r="M6">
         <v>2022</v>
@@ -1789,40 +2056,40 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C7" t="s">
         <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1767289</v>
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G7" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="K7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
         <v>168</v>
       </c>
       <c r="M7">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -1839,13 +2106,13 @@
         <v>16</v>
       </c>
       <c r="E8" s="1">
-        <v>1904159</v>
+        <v>1767289</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H8" t="s">
         <v>25</v>
@@ -1854,10 +2121,10 @@
         <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
         <v>168</v>
@@ -1871,7 +2138,7 @@
         <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>40</v>
@@ -1880,25 +2147,25 @@
         <v>16</v>
       </c>
       <c r="E9" s="1">
-        <v>1687238</v>
+        <v>1904159</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s">
         <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="L9" t="s">
         <v>168</v>
@@ -1921,13 +2188,13 @@
         <v>16</v>
       </c>
       <c r="E10" s="1">
-        <v>1792146</v>
+        <v>1687238</v>
       </c>
       <c r="F10" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
         <v>52</v>
@@ -1936,10 +2203,10 @@
         <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L10" t="s">
         <v>168</v>
@@ -1950,40 +2217,40 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="E11" s="1">
-        <v>18456925</v>
+        <v>1792146</v>
       </c>
       <c r="F11" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H11" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="J11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="L11" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
       <c r="M11">
         <v>2021</v>
@@ -1994,37 +2261,37 @@
         <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E12" s="1">
-        <v>1984390</v>
+        <v>18456925</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="G12" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="M12">
         <v>2021</v>
@@ -2035,37 +2302,37 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="E13" s="1">
-        <v>1065834</v>
+        <v>1984390</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="L13" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="M13">
         <v>2021</v>
@@ -2085,13 +2352,13 @@
         <v>74</v>
       </c>
       <c r="E14" s="1">
-        <v>735702</v>
+        <v>1065834</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H14" t="s">
         <v>25</v>
@@ -2100,10 +2367,10 @@
         <v>76</v>
       </c>
       <c r="J14" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="K14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L14" t="s">
         <v>79</v>
@@ -2126,13 +2393,13 @@
         <v>74</v>
       </c>
       <c r="E15" s="1">
-        <v>1601967</v>
+        <v>735702</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H15" t="s">
         <v>25</v>
@@ -2141,10 +2408,10 @@
         <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L15" t="s">
         <v>79</v>
@@ -2167,13 +2434,13 @@
         <v>74</v>
       </c>
       <c r="E16" s="1">
-        <v>1095633</v>
+        <v>1601967</v>
       </c>
       <c r="F16" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
@@ -2182,10 +2449,10 @@
         <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="K16" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L16" t="s">
         <v>79</v>
@@ -2208,25 +2475,25 @@
         <v>74</v>
       </c>
       <c r="E17" s="1">
-        <v>717518</v>
+        <v>1095633</v>
       </c>
       <c r="F17" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H17" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="I17" t="s">
         <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L17" t="s">
         <v>79</v>
@@ -2249,13 +2516,13 @@
         <v>74</v>
       </c>
       <c r="E18" s="1">
-        <v>939988</v>
+        <v>717518</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H18" t="s">
         <v>18</v>
@@ -2264,10 +2531,10 @@
         <v>76</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L18" t="s">
         <v>79</v>
@@ -2290,13 +2557,13 @@
         <v>74</v>
       </c>
       <c r="E19" s="1">
-        <v>1172506</v>
+        <v>939988</v>
       </c>
       <c r="F19" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="G19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
         <v>18</v>
@@ -2305,10 +2572,10 @@
         <v>76</v>
       </c>
       <c r="J19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="K19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="L19" t="s">
         <v>79</v>
@@ -2331,13 +2598,13 @@
         <v>74</v>
       </c>
       <c r="E20" s="1">
-        <v>1142896</v>
+        <v>1172506</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="G20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H20" t="s">
         <v>18</v>
@@ -2346,10 +2613,10 @@
         <v>76</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="L20" t="s">
         <v>79</v>
@@ -2372,25 +2639,25 @@
         <v>74</v>
       </c>
       <c r="E21" s="1">
-        <v>817197</v>
+        <v>1142896</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H21" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L21" t="s">
         <v>79</v>
@@ -2413,13 +2680,13 @@
         <v>74</v>
       </c>
       <c r="E22" s="1">
-        <v>1000637</v>
+        <v>817197</v>
       </c>
       <c r="F22" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -2428,10 +2695,10 @@
         <v>76</v>
       </c>
       <c r="J22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s">
         <v>79</v>
@@ -2454,10 +2721,10 @@
         <v>74</v>
       </c>
       <c r="E23" s="1">
-        <v>955510</v>
+        <v>1000637</v>
       </c>
       <c r="F23" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G23" t="s">
         <v>125</v>
@@ -2469,10 +2736,10 @@
         <v>76</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L23" t="s">
         <v>79</v>
@@ -2486,37 +2753,37 @@
         <v>58</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>73</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="E24" s="1">
-        <v>1537864</v>
+        <v>955510</v>
       </c>
       <c r="F24" t="s">
-        <v>169</v>
+        <v>83</v>
       </c>
       <c r="G24" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
       </c>
       <c r="I24" t="s">
-        <v>171</v>
+        <v>76</v>
       </c>
       <c r="J24" t="s">
-        <v>172</v>
+        <v>105</v>
       </c>
       <c r="K24" t="s">
-        <v>173</v>
+        <v>106</v>
       </c>
       <c r="L24" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="M24">
         <v>2021</v>
@@ -2527,37 +2794,37 @@
         <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
       <c r="E25" s="1">
-        <v>1005791</v>
+        <v>1537864</v>
       </c>
       <c r="F25" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="G25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="H25" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I25" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K25" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="L25" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="M25">
         <v>2021</v>
@@ -2568,7 +2835,7 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
@@ -2577,25 +2844,25 @@
         <v>178</v>
       </c>
       <c r="E26" s="1">
-        <v>762273</v>
+        <v>1005791</v>
       </c>
       <c r="F26" t="s">
         <v>179</v>
       </c>
       <c r="G26" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="I26" t="s">
         <v>181</v>
       </c>
       <c r="J26" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="L26" t="s">
         <v>184</v>
@@ -2609,7 +2876,7 @@
         <v>58</v>
       </c>
       <c r="B27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
@@ -2618,13 +2885,13 @@
         <v>178</v>
       </c>
       <c r="E27" s="1">
-        <v>1023539</v>
+        <v>762273</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>179</v>
       </c>
       <c r="G27" t="s">
-        <v>189</v>
+        <v>120</v>
       </c>
       <c r="H27" t="s">
         <v>52</v>
@@ -2633,10 +2900,10 @@
         <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="K27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
         <v>184</v>
@@ -2650,40 +2917,40 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>137</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="E28" s="1">
-        <v>4282202</v>
+        <v>1023539</v>
       </c>
       <c r="F28" t="s">
-        <v>192</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>126</v>
+        <v>189</v>
       </c>
       <c r="H28" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="I28" t="s">
-        <v>70</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="K28" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="L28" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="M28">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
@@ -2691,34 +2958,34 @@
         <v>58</v>
       </c>
       <c r="B29" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E29" s="1">
-        <v>2872317</v>
+        <v>4282202</v>
       </c>
       <c r="F29" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H29" t="s">
-        <v>25</v>
+        <v>133</v>
       </c>
       <c r="I29" t="s">
         <v>70</v>
       </c>
       <c r="J29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="L29" t="s">
         <v>193</v>
@@ -2732,34 +2999,34 @@
         <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E30" s="1">
-        <v>2669321</v>
+        <v>2872317</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="I30" t="s">
         <v>70</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="K30" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L30" t="s">
         <v>193</v>
@@ -2773,7 +3040,7 @@
         <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
@@ -2782,25 +3049,25 @@
         <v>143</v>
       </c>
       <c r="E31" s="1">
-        <v>5866401</v>
+        <v>2669321</v>
       </c>
       <c r="F31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H31" t="s">
-        <v>134</v>
+        <v>62</v>
       </c>
       <c r="I31" t="s">
         <v>70</v>
       </c>
       <c r="J31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="K31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="L31" t="s">
         <v>193</v>
@@ -2814,37 +3081,37 @@
         <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E32" s="1">
-        <v>1417931</v>
+        <v>5866401</v>
       </c>
       <c r="F32" t="s">
-        <v>132</v>
+        <v>196</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="H32" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="I32" t="s">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="J32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K32" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="L32" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M32">
         <v>2022</v>
@@ -2855,7 +3122,7 @@
         <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
@@ -2864,28 +3131,28 @@
         <v>144</v>
       </c>
       <c r="E33" s="1">
-        <v>2017709</v>
+        <v>1417931</v>
       </c>
       <c r="F33" t="s">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="G33" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="I33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K33" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="L33" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M33">
         <v>2022</v>
@@ -2896,7 +3163,7 @@
         <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
@@ -2905,28 +3172,28 @@
         <v>144</v>
       </c>
       <c r="E34" s="1">
-        <v>2694800</v>
+        <v>2017709</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="G34" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H34" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="L34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="M34">
         <v>2022</v>
@@ -2937,7 +3204,7 @@
         <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
@@ -2946,28 +3213,28 @@
         <v>144</v>
       </c>
       <c r="E35" s="1">
-        <v>1280382</v>
+        <v>2694800</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="H35" t="s">
-        <v>204</v>
+        <v>134</v>
       </c>
       <c r="I35" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="J35" t="s">
-        <v>206</v>
+        <v>154</v>
       </c>
       <c r="K35" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
       <c r="L35" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="M35">
         <v>2022</v>
@@ -2987,25 +3254,25 @@
         <v>144</v>
       </c>
       <c r="E36" s="1">
-        <v>1907840</v>
+        <v>1280382</v>
       </c>
       <c r="F36" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
         <v>205</v>
       </c>
       <c r="J36" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="K36" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="L36" t="s">
         <v>208</v>
@@ -3028,25 +3295,25 @@
         <v>144</v>
       </c>
       <c r="E37" s="1">
-        <v>1543899</v>
+        <v>1907840</v>
       </c>
       <c r="F37" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H37" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="I37" t="s">
         <v>205</v>
       </c>
       <c r="J37" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="K37" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="L37" t="s">
         <v>208</v>
@@ -3055,48 +3322,724 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+      <c r="E38" s="1">
+        <v>1543899</v>
+      </c>
+      <c r="F38" t="s">
+        <v>214</v>
+      </c>
+      <c r="G38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" t="s">
+        <v>216</v>
+      </c>
+      <c r="I38" t="s">
+        <v>205</v>
+      </c>
+      <c r="J38" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" t="s">
+        <v>208</v>
+      </c>
+      <c r="M38">
+        <v>2022</v>
+      </c>
+    </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>162</v>
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>144</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1645079</v>
+      </c>
+      <c r="F39" t="s">
+        <v>229</v>
+      </c>
+      <c r="G39" t="s">
+        <v>230</v>
+      </c>
+      <c r="H39" t="s">
+        <v>62</v>
+      </c>
+      <c r="I39" t="s">
+        <v>231</v>
+      </c>
+      <c r="J39" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" t="s">
+        <v>233</v>
+      </c>
+      <c r="L39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M39">
+        <v>2022</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>163</v>
+        <v>58</v>
+      </c>
+      <c r="B40" t="s">
+        <v>235</v>
+      </c>
+      <c r="C40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" t="s">
+        <v>144</v>
+      </c>
+      <c r="E40" s="1">
+        <v>992914</v>
+      </c>
+      <c r="F40" t="s">
+        <v>236</v>
+      </c>
+      <c r="G40" t="s">
+        <v>237</v>
+      </c>
+      <c r="H40" t="s">
+        <v>134</v>
+      </c>
+      <c r="I40" t="s">
+        <v>238</v>
+      </c>
+      <c r="J40" t="s">
+        <v>239</v>
+      </c>
+      <c r="K40" t="s">
+        <v>240</v>
+      </c>
+      <c r="L40" t="s">
+        <v>241</v>
+      </c>
+      <c r="M40">
+        <v>2022</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>174</v>
+        <v>58</v>
+      </c>
+      <c r="B41" t="s">
+        <v>303</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E41" s="1">
+        <v>401972</v>
+      </c>
+      <c r="F41" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" t="s">
+        <v>302</v>
+      </c>
+      <c r="H41" t="s">
+        <v>133</v>
+      </c>
+      <c r="I41" t="s">
+        <v>245</v>
+      </c>
+      <c r="J41" t="s">
+        <v>301</v>
+      </c>
+      <c r="K41" t="s">
+        <v>300</v>
+      </c>
+      <c r="L41" t="s">
+        <v>242</v>
+      </c>
+      <c r="M41">
+        <v>2022</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>248</v>
+      </c>
+      <c r="E42" s="1">
+        <v>431565</v>
+      </c>
+      <c r="F42" t="s">
+        <v>298</v>
+      </c>
+      <c r="G42" t="s">
+        <v>272</v>
+      </c>
+      <c r="H42" t="s">
+        <v>135</v>
+      </c>
+      <c r="I42" t="s">
+        <v>245</v>
+      </c>
+      <c r="J42" t="s">
+        <v>297</v>
+      </c>
+      <c r="K42" t="s">
+        <v>296</v>
+      </c>
+      <c r="L42" t="s">
+        <v>242</v>
+      </c>
+      <c r="M42">
+        <v>2022</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>165</v>
+        <v>58</v>
+      </c>
+      <c r="B43" t="s">
+        <v>295</v>
+      </c>
+      <c r="C43" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" t="s">
+        <v>248</v>
+      </c>
+      <c r="E43" s="1">
+        <v>352075</v>
+      </c>
+      <c r="F43" t="s">
+        <v>247</v>
+      </c>
+      <c r="G43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I43" t="s">
+        <v>245</v>
+      </c>
+      <c r="J43" t="s">
+        <v>294</v>
+      </c>
+      <c r="K43" t="s">
+        <v>293</v>
+      </c>
+      <c r="L43" t="s">
+        <v>242</v>
+      </c>
+      <c r="M43">
+        <v>2022</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>166</v>
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>292</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>248</v>
+      </c>
+      <c r="E44" s="1">
+        <v>316293</v>
+      </c>
+      <c r="F44" t="s">
+        <v>291</v>
+      </c>
+      <c r="G44" t="s">
+        <v>290</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>245</v>
+      </c>
+      <c r="J44" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s">
+        <v>288</v>
+      </c>
+      <c r="L44" t="s">
+        <v>242</v>
+      </c>
+      <c r="M44">
+        <v>2022</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>287</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" t="s">
+        <v>248</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1405292</v>
+      </c>
+      <c r="F45" t="s">
+        <v>247</v>
+      </c>
+      <c r="G45" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" t="s">
+        <v>62</v>
+      </c>
+      <c r="I45" t="s">
+        <v>245</v>
+      </c>
+      <c r="J45" t="s">
+        <v>285</v>
+      </c>
+      <c r="K45" t="s">
+        <v>284</v>
+      </c>
+      <c r="L45" t="s">
+        <v>242</v>
+      </c>
+      <c r="M45">
+        <v>2022</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>220</v>
+        <v>58</v>
+      </c>
+      <c r="B46" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" t="s">
+        <v>248</v>
+      </c>
+      <c r="E46" s="1">
+        <v>489722</v>
+      </c>
+      <c r="F46" t="s">
+        <v>282</v>
+      </c>
+      <c r="G46" t="s">
+        <v>124</v>
+      </c>
+      <c r="H46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" t="s">
+        <v>245</v>
+      </c>
+      <c r="J46" t="s">
+        <v>281</v>
+      </c>
+      <c r="K46" t="s">
+        <v>280</v>
+      </c>
+      <c r="L46" t="s">
+        <v>242</v>
+      </c>
+      <c r="M46">
+        <v>2022</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>248</v>
+      </c>
+      <c r="E47" s="1">
+        <v>304297</v>
+      </c>
+      <c r="F47" t="s">
+        <v>278</v>
+      </c>
+      <c r="G47" t="s">
+        <v>277</v>
+      </c>
+      <c r="H47" t="s">
+        <v>224</v>
+      </c>
+      <c r="I47" t="s">
+        <v>245</v>
+      </c>
+      <c r="J47" t="s">
+        <v>276</v>
+      </c>
+      <c r="K47" t="s">
+        <v>275</v>
+      </c>
+      <c r="L47" t="s">
+        <v>242</v>
+      </c>
+      <c r="M47">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+      <c r="B48" t="s">
+        <v>274</v>
+      </c>
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>248</v>
+      </c>
+      <c r="E48" s="1">
+        <v>772375</v>
+      </c>
+      <c r="F48" t="s">
+        <v>273</v>
+      </c>
+      <c r="G48" t="s">
+        <v>272</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>245</v>
+      </c>
+      <c r="J48" t="s">
+        <v>271</v>
+      </c>
+      <c r="K48" t="s">
+        <v>270</v>
+      </c>
+      <c r="L48" t="s">
+        <v>242</v>
+      </c>
+      <c r="M48">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" t="s">
+        <v>269</v>
+      </c>
+      <c r="C49" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" t="s">
+        <v>248</v>
+      </c>
+      <c r="E49" s="1">
+        <v>382607</v>
+      </c>
+      <c r="F49" t="s">
+        <v>268</v>
+      </c>
+      <c r="G49" t="s">
+        <v>267</v>
+      </c>
+      <c r="H49" t="s">
+        <v>62</v>
+      </c>
+      <c r="I49" t="s">
+        <v>245</v>
+      </c>
+      <c r="J49" t="s">
+        <v>266</v>
+      </c>
+      <c r="K49" t="s">
+        <v>265</v>
+      </c>
+      <c r="L49" t="s">
+        <v>242</v>
+      </c>
+      <c r="M49">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>264</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>248</v>
+      </c>
+      <c r="E50" s="1">
+        <v>835829</v>
+      </c>
+      <c r="F50" t="s">
+        <v>263</v>
+      </c>
+      <c r="G50" t="s">
+        <v>262</v>
+      </c>
+      <c r="H50" t="s">
+        <v>62</v>
+      </c>
+      <c r="I50" t="s">
+        <v>245</v>
+      </c>
+      <c r="J50" t="s">
+        <v>261</v>
+      </c>
+      <c r="K50" t="s">
+        <v>260</v>
+      </c>
+      <c r="L50" t="s">
+        <v>242</v>
+      </c>
+      <c r="M50">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>259</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="1">
+        <v>613716</v>
+      </c>
+      <c r="F51" t="s">
+        <v>258</v>
+      </c>
+      <c r="G51" t="s">
+        <v>257</v>
+      </c>
+      <c r="H51" t="s">
+        <v>134</v>
+      </c>
+      <c r="I51" t="s">
+        <v>245</v>
+      </c>
+      <c r="J51" t="s">
+        <v>256</v>
+      </c>
+      <c r="K51" t="s">
+        <v>255</v>
+      </c>
+      <c r="L51" t="s">
+        <v>242</v>
+      </c>
+      <c r="M51">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>254</v>
+      </c>
+      <c r="C52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="1">
+        <v>516974</v>
+      </c>
+      <c r="F52" t="s">
+        <v>253</v>
+      </c>
+      <c r="G52" t="s">
+        <v>252</v>
+      </c>
+      <c r="H52" t="s">
+        <v>308</v>
+      </c>
+      <c r="I52" t="s">
+        <v>245</v>
+      </c>
+      <c r="J52" t="s">
+        <v>251</v>
+      </c>
+      <c r="K52" t="s">
+        <v>250</v>
+      </c>
+      <c r="L52" t="s">
+        <v>242</v>
+      </c>
+      <c r="M52">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>249</v>
+      </c>
+      <c r="C53" t="s">
+        <v>15</v>
+      </c>
+      <c r="D53" t="s">
+        <v>248</v>
+      </c>
+      <c r="E53" s="1">
+        <v>521875</v>
+      </c>
+      <c r="F53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" t="s">
+        <v>246</v>
+      </c>
+      <c r="H53" t="s">
+        <v>135</v>
+      </c>
+      <c r="I53" t="s">
+        <v>245</v>
+      </c>
+      <c r="J53" t="s">
+        <v>244</v>
+      </c>
+      <c r="K53" t="s">
+        <v>243</v>
+      </c>
+      <c r="L53" t="s">
+        <v>242</v>
+      </c>
+      <c r="M53">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>167</v>
       </c>
     </row>

--- a/docs/PacBio-Data.xlsx
+++ b/docs/PacBio-Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dportik/Documents/GitHub/pb-metagenomics-tools/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E88D51-14A7-4541-89F4-9AA7D65083F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62196E64-1DEC-5048-AB2C-17F234E417C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43460" yWindow="1720" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39200" yWindow="660" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PacBio-Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="318">
   <si>
     <t>Sample Type</t>
   </si>
@@ -724,9 +724,6 @@
     <t>[ERR8157883](https://trace.ncbi.nlm.nih.gov/Traces/sra/?run=ERR8157883)</t>
   </si>
   <si>
-    <t>[Onate et al. 2022](https://doi.org/10.1128/mra.00250-22)</t>
-  </si>
-  <si>
     <t>Activated sludge</t>
   </si>
   <si>
@@ -934,12 +931,6 @@
     <t>Cheese rind microbiome (Wy-3-6-CheeseB)</t>
   </si>
   <si>
-    <t>Meslier, V., Quinquis, B., Da Silva, K., Onate, F.P., Pons, N., Roume, H., Podar, M., and M. Almeida. 2022. Benchmarking second and third-generation sequencing platforms for microbial metagenomics. *Scientific Data*, 9: 694. https://doi.org/10.1038/s41597-022-01762-z</t>
-  </si>
-  <si>
-    <t>Onate, F.P., Roume, H., and M. Almeida. 2022. Recovery of metagenome-assembled genomes from a human fecal sample with Pacific Biosciences high-fidelity sequencing. *Microbiology Resource Announcements*, 11: e0025022. https://doi.org/10.1128/mra.00250-22</t>
-  </si>
-  <si>
     <t>Saak, C.C., Pierce, E.C., Dinh, C.B., Portik, D., Hall, R., Ashby, M., and R.J. Dutton. 2022. Longitudinal, multi-platform metagenomics yields a high-quality genomic catalog and guides an in vitro model for cheese communities. *mSystems*, Accepted. https://www.biorxiv.org/content/10.1101/2022.07.01.497845v1</t>
   </si>
   <si>
@@ -947,6 +938,42 @@
   </si>
   <si>
     <t>Q32</t>
+  </si>
+  <si>
+    <t>Plaza Onate, F., Roume, H., and M. Almeida. 2022. Recovery of metagenome-assembled genomes from a human fecal sample with Pacific Biosciences high-fidelity sequencing. *Microbiology Resource Announcements*, 11: e0025022. https://doi.org/10.1128/mra.00250-22</t>
+  </si>
+  <si>
+    <t>[Plaza Onate et al. 2022](https://doi.org/10.1128/mra.00250-22)</t>
+  </si>
+  <si>
+    <t>Meslier, V., Quinquis, B., Da Silva, K., Plaza Onate, F., Pons, N., Roume, H., Podar, M., and M. Almeida. 2022. Benchmarking second and third-generation sequencing platforms for microbial metagenomics. *Scientific Data*, 9: 694. https://doi.org/10.1038/s41597-022-01762-z</t>
+  </si>
+  <si>
+    <t>Saline lake sediment microbiome</t>
+  </si>
+  <si>
+    <t>4.5 kb</t>
+  </si>
+  <si>
+    <t>9.1 Gb</t>
+  </si>
+  <si>
+    <t>Q45</t>
+  </si>
+  <si>
+    <t>[CNP0003352](https://db.cngb.org/search/project/CNP0003352/)</t>
+  </si>
+  <si>
+    <t>[CNX0487864](https://db.cngb.org/search/experiment/CNX0487864/)</t>
+  </si>
+  <si>
+    <t>[CNR0579765](https://db.cngb.org/search/run/CNR0579765/)</t>
+  </si>
+  <si>
+    <t>[Tao et al. 2022](https://doi.org/10.1128/spectrum.03328-22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tao, Y., Xun, F., Zhao, C., Mao, Z., Li, B.,  Xing, P., and Q.L. Wu. 2022. Improved assembly of metagenome-assembled genomes and viruses in Tibetan saline lake sediment by HiFi metagenomic sequencing. *Microbiology Spectrum*, Online Early. https://doi.org/10.1128/spectrum.03328-22 </t>
   </si>
 </sst>
 </file>
@@ -1794,15 +1821,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:XFD54"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="47.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -3398,7 +3426,7 @@
         <v>233</v>
       </c>
       <c r="L39" t="s">
-        <v>234</v>
+        <v>307</v>
       </c>
       <c r="M39">
         <v>2022</v>
@@ -3409,7 +3437,7 @@
         <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
@@ -3421,25 +3449,25 @@
         <v>992914</v>
       </c>
       <c r="F40" t="s">
+        <v>235</v>
+      </c>
+      <c r="G40" t="s">
         <v>236</v>
-      </c>
-      <c r="G40" t="s">
-        <v>237</v>
       </c>
       <c r="H40" t="s">
         <v>134</v>
       </c>
       <c r="I40" t="s">
+        <v>237</v>
+      </c>
+      <c r="J40" t="s">
         <v>238</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>239</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>240</v>
-      </c>
-      <c r="L40" t="s">
-        <v>241</v>
       </c>
       <c r="M40">
         <v>2022</v>
@@ -3450,13 +3478,13 @@
         <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E41" s="1">
         <v>401972</v>
@@ -3465,22 +3493,22 @@
         <v>198</v>
       </c>
       <c r="G41" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H41" t="s">
         <v>133</v>
       </c>
       <c r="I41" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J41" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K41" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L41" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M41">
         <v>2022</v>
@@ -3491,37 +3519,37 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E42" s="1">
         <v>431565</v>
       </c>
       <c r="F42" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H42" t="s">
         <v>135</v>
       </c>
       <c r="I42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K42" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L42" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M42">
         <v>2022</v>
@@ -3532,19 +3560,19 @@
         <v>58</v>
       </c>
       <c r="B43" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E43" s="1">
         <v>352075</v>
       </c>
       <c r="F43" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G43" t="s">
         <v>136</v>
@@ -3553,16 +3581,16 @@
         <v>62</v>
       </c>
       <c r="I43" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J43" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="K43" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L43" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M43">
         <v>2022</v>
@@ -3573,37 +3601,37 @@
         <v>58</v>
       </c>
       <c r="B44" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E44" s="1">
         <v>316293</v>
       </c>
       <c r="F44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="K44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L44" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M44">
         <v>2022</v>
@@ -3614,37 +3642,37 @@
         <v>58</v>
       </c>
       <c r="B45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E45" s="1">
         <v>1405292</v>
       </c>
       <c r="F45" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G45" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H45" t="s">
         <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K45" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L45" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M45">
         <v>2022</v>
@@ -3655,19 +3683,19 @@
         <v>58</v>
       </c>
       <c r="B46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E46" s="1">
         <v>489722</v>
       </c>
       <c r="F46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G46" t="s">
         <v>124</v>
@@ -3676,16 +3704,16 @@
         <v>135</v>
       </c>
       <c r="I46" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L46" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M46">
         <v>2022</v>
@@ -3696,37 +3724,37 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E47" s="1">
         <v>304297</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H47" t="s">
         <v>224</v>
       </c>
       <c r="I47" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L47" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M47">
         <v>2022</v>
@@ -3737,37 +3765,37 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C48" t="s">
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E48" s="1">
         <v>772375</v>
       </c>
       <c r="F48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G48" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J48" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K48" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="L48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M48">
         <v>2022</v>
@@ -3778,37 +3806,37 @@
         <v>58</v>
       </c>
       <c r="B49" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C49" t="s">
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E49" s="1">
         <v>382607</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G49" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H49" t="s">
         <v>62</v>
       </c>
       <c r="I49" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J49" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K49" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M49">
         <v>2022</v>
@@ -3819,37 +3847,37 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C50" t="s">
         <v>15</v>
       </c>
       <c r="D50" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E50" s="1">
         <v>835829</v>
       </c>
       <c r="F50" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G50" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H50" t="s">
         <v>62</v>
       </c>
       <c r="I50" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J50" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K50" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="L50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M50">
         <v>2022</v>
@@ -3860,37 +3888,37 @@
         <v>58</v>
       </c>
       <c r="B51" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C51" t="s">
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E51" s="1">
         <v>613716</v>
       </c>
       <c r="F51" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G51" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H51" t="s">
         <v>134</v>
       </c>
       <c r="I51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J51" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K51" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="L51" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M51">
         <v>2022</v>
@@ -3901,37 +3929,37 @@
         <v>58</v>
       </c>
       <c r="B52" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C52" t="s">
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E52" s="1">
         <v>516974</v>
       </c>
       <c r="F52" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G52" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H52" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="I52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J52" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="K52" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M52">
         <v>2022</v>
@@ -3942,80 +3970,116 @@
         <v>58</v>
       </c>
       <c r="B53" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C53" t="s">
         <v>15</v>
       </c>
       <c r="D53" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E53" s="1">
         <v>521875</v>
       </c>
       <c r="F53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H53" t="s">
         <v>135</v>
       </c>
       <c r="I53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="L53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="M53">
         <v>2022</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>162</v>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>309</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>144</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2033496</v>
+      </c>
+      <c r="F54" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" t="s">
+        <v>311</v>
+      </c>
+      <c r="H54" t="s">
+        <v>312</v>
+      </c>
+      <c r="I54" t="s">
+        <v>313</v>
+      </c>
+      <c r="J54" t="s">
+        <v>314</v>
+      </c>
+      <c r="K54" t="s">
+        <v>315</v>
+      </c>
+      <c r="L54" t="s">
+        <v>316</v>
+      </c>
+      <c r="M54">
+        <v>2022</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>308</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>305</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
@@ -4025,21 +4089,31 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>220</v>
+        <v>306</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>306</v>
+        <v>220</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>167</v>
       </c>
     </row>
